--- a/Pento.xlsx
+++ b/Pento.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb8fe01569cd601b/Theo/Project/Pentomino/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_FB77F28C9BC76E699FBF462492ED76A4387E7290" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD5AE900-B69F-46BB-B002-BC693C258089}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="150" windowWidth="14355" windowHeight="4170" activeTab="1"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="63 Orientaties" sheetId="1" r:id="rId1"/>
+    <sheet name="63 Orientations" sheetId="1" r:id="rId1"/>
     <sheet name="Stone info" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -81,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -314,14 +319,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,7 +367,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -431,7 +439,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -604,7 +612,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -614,14 +622,14 @@
       <selection activeCell="V33" sqref="V33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="34" width="5.7109375" customWidth="1"/>
-    <col min="35" max="44" width="4.7109375" customWidth="1"/>
-    <col min="45" max="51" width="5.7109375" customWidth="1"/>
+    <col min="1" max="34" width="5.71875" customWidth="1"/>
+    <col min="35" max="44" width="4.71875" customWidth="1"/>
+    <col min="45" max="51" width="5.71875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A1" s="3">
         <v>11</v>
       </c>
@@ -676,7 +684,7 @@
       <c r="AL1" s="7"/>
       <c r="AM1" s="24"/>
     </row>
-    <row r="2" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2"/>
       <c r="B2" s="7"/>
       <c r="C2" s="7"/>
@@ -717,7 +725,7 @@
       <c r="AL2" s="7"/>
       <c r="AM2" s="24"/>
     </row>
-    <row r="3" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A3" s="2"/>
       <c r="B3" s="7"/>
       <c r="C3" s="7"/>
@@ -768,7 +776,7 @@
       <c r="AL3" s="7"/>
       <c r="AM3" s="24"/>
     </row>
-    <row r="4" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -809,7 +817,7 @@
       <c r="AL4" s="7"/>
       <c r="AM4" s="24"/>
     </row>
-    <row r="5" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -862,7 +870,7 @@
       <c r="AL5" s="7"/>
       <c r="AM5" s="24"/>
     </row>
-    <row r="6" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="7"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -903,7 +911,7 @@
       <c r="AL6" s="7"/>
       <c r="AM6" s="24"/>
     </row>
-    <row r="7" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A7" s="8">
         <v>31</v>
       </c>
@@ -952,7 +960,7 @@
       <c r="AL7" s="7"/>
       <c r="AM7" s="24"/>
     </row>
-    <row r="8" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A8" s="8">
         <v>1</v>
       </c>
@@ -1009,7 +1017,7 @@
       <c r="AL8" s="7"/>
       <c r="AM8" s="24"/>
     </row>
-    <row r="9" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -1050,7 +1058,7 @@
       <c r="AL9" s="7"/>
       <c r="AM9" s="24"/>
     </row>
-    <row r="10" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A10" s="9"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1091,7 +1099,7 @@
       <c r="AL10" s="7"/>
       <c r="AM10" s="24"/>
     </row>
-    <row r="11" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A11" s="13">
         <v>41</v>
       </c>
@@ -1148,7 +1156,7 @@
       <c r="AL11" s="7"/>
       <c r="AM11" s="24"/>
     </row>
-    <row r="12" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A12" s="13"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1193,7 +1201,7 @@
       <c r="AL12" s="7"/>
       <c r="AM12" s="24"/>
     </row>
-    <row r="13" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A13" s="13">
         <v>1</v>
       </c>
@@ -1246,7 +1254,7 @@
       <c r="AL13" s="7"/>
       <c r="AM13" s="24"/>
     </row>
-    <row r="14" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1287,7 +1295,7 @@
       <c r="AL14" s="7"/>
       <c r="AM14" s="24"/>
     </row>
-    <row r="15" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A15" s="3">
         <v>61</v>
       </c>
@@ -1344,7 +1352,7 @@
       <c r="AL15" s="7"/>
       <c r="AM15" s="24"/>
     </row>
-    <row r="16" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="9"/>
@@ -1393,7 +1401,7 @@
       <c r="AL16" s="7"/>
       <c r="AM16" s="24"/>
     </row>
-    <row r="17" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1442,7 +1450,7 @@
       <c r="AL17" s="7"/>
       <c r="AM17" s="24"/>
     </row>
-    <row r="18" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -1483,7 +1491,7 @@
       <c r="AL18" s="7"/>
       <c r="AM18" s="24"/>
     </row>
-    <row r="19" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A19" s="8">
         <v>71</v>
       </c>
@@ -1540,7 +1548,7 @@
       <c r="AL19" s="7"/>
       <c r="AM19" s="24"/>
     </row>
-    <row r="20" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="8"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -1589,7 +1597,7 @@
       <c r="AL20" s="7"/>
       <c r="AM20" s="24"/>
     </row>
-    <row r="21" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -1630,7 +1638,7 @@
       <c r="AL21" s="7"/>
       <c r="AM21" s="24"/>
     </row>
-    <row r="22" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A22" s="8">
         <v>1</v>
       </c>
@@ -1679,7 +1687,7 @@
       <c r="AL22" s="7"/>
       <c r="AM22" s="24"/>
     </row>
-    <row r="23" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -1720,7 +1728,7 @@
       <c r="AL23" s="7"/>
       <c r="AM23" s="24"/>
     </row>
-    <row r="24" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A24" s="17">
         <v>81</v>
       </c>
@@ -1777,7 +1785,7 @@
       <c r="AL24" s="7"/>
       <c r="AM24" s="24"/>
     </row>
-    <row r="25" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A25" s="16"/>
       <c r="B25" s="16"/>
       <c r="C25" s="25"/>
@@ -1818,7 +1826,7 @@
       <c r="AL25" s="7"/>
       <c r="AM25" s="24"/>
     </row>
-    <row r="26" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A26" s="25"/>
       <c r="B26" s="17">
         <v>1</v>
@@ -1875,7 +1883,7 @@
       <c r="AL26" s="7"/>
       <c r="AM26" s="24"/>
     </row>
-    <row r="27" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1916,7 +1924,7 @@
       <c r="AL27" s="7"/>
       <c r="AM27" s="24"/>
     </row>
-    <row r="28" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="23">
         <v>121</v>
       </c>
@@ -1973,7 +1981,7 @@
       <c r="AL28" s="7"/>
       <c r="AM28" s="24"/>
     </row>
-    <row r="29" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A29" s="7"/>
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
@@ -2014,7 +2022,7 @@
       <c r="AL29" s="7"/>
       <c r="AM29" s="24"/>
     </row>
-    <row r="30" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A30" s="9"/>
       <c r="B30" s="23">
         <v>1</v>
@@ -2071,7 +2079,7 @@
       <c r="AL30" s="7"/>
       <c r="AM30" s="24"/>
     </row>
-    <row r="31" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -2112,7 +2120,7 @@
       <c r="AL31" s="7"/>
       <c r="AM31" s="24"/>
     </row>
-    <row r="32" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A32" s="21">
         <v>111</v>
       </c>
@@ -2167,7 +2175,7 @@
       <c r="AL32" s="7"/>
       <c r="AM32" s="24"/>
     </row>
-    <row r="33" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A33" s="21"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2214,7 +2222,7 @@
       <c r="AL33" s="7"/>
       <c r="AM33" s="24"/>
     </row>
-    <row r="34" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A34" s="21"/>
       <c r="B34" s="21"/>
       <c r="C34" s="9"/>
@@ -2257,7 +2265,7 @@
       <c r="AL34" s="7"/>
       <c r="AM34" s="24"/>
     </row>
-    <row r="35" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A35" s="9"/>
       <c r="B35" s="21">
         <v>1</v>
@@ -2308,7 +2316,7 @@
       <c r="AL35" s="7"/>
       <c r="AM35" s="24"/>
     </row>
-    <row r="36" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -2349,7 +2357,7 @@
       <c r="AL36" s="7"/>
       <c r="AM36" s="24"/>
     </row>
-    <row r="37" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -2390,7 +2398,7 @@
       <c r="AL37" s="7"/>
       <c r="AM37" s="24"/>
     </row>
-    <row r="38" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="1"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
@@ -2430,7 +2438,7 @@
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
     </row>
-    <row r="39" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
@@ -2470,7 +2478,7 @@
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
     </row>
-    <row r="40" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:39" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -2510,7 +2518,7 @@
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
     </row>
-    <row r="41" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="1"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
@@ -2550,7 +2558,7 @@
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
     </row>
-    <row r="42" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="1"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
@@ -2590,7 +2598,7 @@
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
     </row>
-    <row r="43" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="1"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
@@ -2630,440 +2638,440 @@
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
     </row>
-    <row r="44" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="45" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="45" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="46" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="47" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="48" spans="1:39" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="49" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="50" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="51" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="52" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="53" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="54" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="55" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="56" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="57" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="58" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="59" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="60" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="61" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="62" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="63" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="64" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="81" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="82" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="83" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="84" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="85" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="86" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="87" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="88" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="89" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="90" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="91" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="92" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="93" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="94" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="95" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="96" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="97" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="98" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="99" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="100" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="101" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="102" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="103" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="104" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="105" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="106" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="107" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="108" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="109" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="110" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="111" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="112" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="113" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="114" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="115" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="116" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="117" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="118" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="119" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="120" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="121" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="122" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="123" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="124" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="125" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="126" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="127" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="128" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="129" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="130" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="131" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="132" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="133" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="134" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="135" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="136" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="137" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="138" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="139" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="140" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="141" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="142" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="143" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="144" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="145" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="146" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="147" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="148" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="149" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="150" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="151" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="152" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="153" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="154" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="155" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="156" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="157" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="158" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="159" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="160" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="161" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="162" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="163" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="164" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="165" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="166" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="167" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="168" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="169" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="170" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="171" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="172" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="173" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="174" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="175" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="176" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="177" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="178" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="179" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="180" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="181" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="182" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="183" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="184" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="185" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="186" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="187" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="188" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="189" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="190" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="191" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="192" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="193" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="194" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="195" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="196" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="197" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="198" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="199" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="200" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="201" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="202" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="203" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="204" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="205" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="206" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="207" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="208" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="209" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="210" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="211" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="212" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="213" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="214" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="215" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="216" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="217" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="218" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="219" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="220" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="221" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="222" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="223" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="224" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="225" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="226" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="227" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="228" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="229" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="230" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="231" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="232" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="233" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="234" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="235" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="236" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="237" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="238" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="239" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="240" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="241" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="242" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="243" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="244" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="245" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="246" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="247" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="248" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="250" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="251" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="252" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="253" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="254" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="255" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="256" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="257" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="258" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="259" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="260" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="261" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="262" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="263" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="264" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="265" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="266" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="267" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="268" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="269" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="270" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="271" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="272" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="273" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="274" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="275" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="276" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="277" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="278" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="279" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="280" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="281" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="282" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="283" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="284" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="285" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="286" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="287" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="288" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="289" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="290" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="291" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="292" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="293" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="294" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="295" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="296" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="297" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="298" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="299" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="300" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="301" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="302" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="303" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="304" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="305" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="306" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="307" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="308" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="309" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="310" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="311" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="312" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="313" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="314" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="315" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="316" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="317" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="318" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="319" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="320" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="321" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="322" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="323" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="324" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="325" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="326" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="327" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="328" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="329" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="330" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="331" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="332" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="333" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="334" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="335" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="336" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="337" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="338" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="339" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="340" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="341" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="342" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="343" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="344" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="345" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="346" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="347" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="348" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="349" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="350" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="351" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="352" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="353" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="354" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="355" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="356" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="357" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="358" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="359" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="360" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="361" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="362" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="363" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="364" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="365" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="366" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="367" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="368" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="369" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="370" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="371" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="372" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="373" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="374" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="375" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="376" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="377" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="378" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="379" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="380" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="381" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="382" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="383" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="384" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="385" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="386" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="387" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="388" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="389" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="390" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="391" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="392" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="393" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="394" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="395" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="396" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="397" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="398" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="399" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="400" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="401" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="402" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="403" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="404" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="405" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="406" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="407" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="408" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="409" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="410" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="411" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="412" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="413" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="414" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="415" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="416" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="417" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="418" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="419" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="420" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="421" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="422" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="423" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="424" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="425" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="426" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="427" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="428" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="429" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="430" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="431" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="432" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="433" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="434" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="435" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="436" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="437" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="438" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="439" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="440" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="441" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="442" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="443" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="444" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="445" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="446" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="447" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="448" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="449" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="450" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="451" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="452" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="453" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="454" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="455" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="456" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="457" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="458" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="459" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="460" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="461" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="462" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="463" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="464" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="465" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="466" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="467" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="468" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="469" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="470" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="471" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="472" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="473" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="474" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="475" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="476" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="477" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
@@ -3071,7 +3079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
@@ -3082,14 +3090,14 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" customWidth="1"/>
+    <col min="1" max="1" width="5.83203125" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="12.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
@@ -3115,7 +3123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="26">
         <v>11</v>
       </c>
@@ -3137,7 +3145,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>12</v>
       </c>
@@ -3163,7 +3171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>21</v>
       </c>
@@ -3185,7 +3193,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>22</v>
       </c>
@@ -3207,7 +3215,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>23</v>
       </c>
@@ -3229,7 +3237,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>24</v>
       </c>
@@ -3251,7 +3259,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>31</v>
       </c>
@@ -3275,7 +3283,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>32</v>
       </c>
@@ -3299,7 +3307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>33</v>
       </c>
@@ -3323,7 +3331,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>34</v>
       </c>
@@ -3347,7 +3355,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>35</v>
       </c>
@@ -3371,7 +3379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>36</v>
       </c>
@@ -3395,7 +3403,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>37</v>
       </c>
@@ -3419,7 +3427,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>38</v>
       </c>
@@ -3443,7 +3451,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>41</v>
       </c>
@@ -3465,7 +3473,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>42</v>
       </c>
@@ -3490,7 +3498,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>43</v>
       </c>
@@ -3512,7 +3520,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>44</v>
       </c>
@@ -3534,7 +3542,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>51</v>
       </c>
@@ -3558,7 +3566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>52</v>
       </c>
@@ -3582,7 +3590,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>53</v>
       </c>
@@ -3606,7 +3614,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>54</v>
       </c>
@@ -3630,7 +3638,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>61</v>
       </c>
@@ -3654,7 +3662,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>62</v>
       </c>
@@ -3678,7 +3686,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
         <v>63</v>
       </c>
@@ -3702,7 +3710,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>64</v>
       </c>
@@ -3726,7 +3734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>65</v>
       </c>
@@ -3750,7 +3758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>66</v>
       </c>
@@ -3774,7 +3782,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>67</v>
       </c>
@@ -3798,7 +3806,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>68</v>
       </c>
@@ -3822,7 +3830,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>71</v>
       </c>
@@ -3844,7 +3852,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>72</v>
       </c>
@@ -3866,7 +3874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>73</v>
       </c>
@@ -3888,7 +3896,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>74</v>
       </c>
@@ -3910,7 +3918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>75</v>
       </c>
@@ -3932,7 +3940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>76</v>
       </c>
@@ -3954,7 +3962,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>77</v>
       </c>
@@ -3976,7 +3984,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>78</v>
       </c>
@@ -3998,7 +4006,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>81</v>
       </c>
@@ -4020,7 +4028,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>82</v>
       </c>
@@ -4042,7 +4050,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>83</v>
       </c>
@@ -4064,7 +4072,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>84</v>
       </c>
@@ -4086,7 +4094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>91</v>
       </c>
@@ -4106,7 +4114,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>92</v>
       </c>
@@ -4126,7 +4134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>93</v>
       </c>
@@ -4146,7 +4154,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="1">
         <v>94</v>
       </c>
@@ -4166,7 +4174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>95</v>
       </c>
@@ -4186,7 +4194,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>96</v>
       </c>
@@ -4206,7 +4214,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>97</v>
       </c>
@@ -4226,7 +4234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>98</v>
       </c>
@@ -4246,7 +4254,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>101</v>
       </c>
@@ -4264,7 +4272,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>111</v>
       </c>
@@ -4286,7 +4294,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>112</v>
       </c>
@@ -4308,7 +4316,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>113</v>
       </c>
@@ -4330,7 +4338,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>114</v>
       </c>
@@ -4352,7 +4360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>115</v>
       </c>
@@ -4374,7 +4382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>116</v>
       </c>
@@ -4396,7 +4404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>117</v>
       </c>
@@ -4418,7 +4426,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>118</v>
       </c>
@@ -4440,7 +4448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>121</v>
       </c>
@@ -4462,7 +4470,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>122</v>
       </c>
@@ -4484,7 +4492,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>123</v>
       </c>
@@ -4506,7 +4514,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>124</v>
       </c>
@@ -4532,16 +4540,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>